--- a/Code/Results/Cases/Case_0_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.904473700885921</v>
+        <v>5.213037744005318</v>
       </c>
       <c r="D2">
-        <v>9.917358336070681</v>
+        <v>8.560862889749792</v>
       </c>
       <c r="E2">
-        <v>7.928507604341678</v>
+        <v>7.667890652881365</v>
       </c>
       <c r="F2">
-        <v>68.82806516494843</v>
+        <v>79.98064016098319</v>
       </c>
       <c r="G2">
-        <v>2.033393939466626</v>
+        <v>3.91386196359629</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>50.68797276312495</v>
+        <v>60.58479843161717</v>
       </c>
       <c r="J2">
-        <v>4.961659580164557</v>
+        <v>9.944455771638804</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.284218272977019</v>
+        <v>8.417923520109101</v>
       </c>
       <c r="M2">
-        <v>46.00217301723526</v>
+        <v>44.57834913285934</v>
       </c>
       <c r="N2">
-        <v>16.26850083769589</v>
+        <v>17.66954877468222</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.243804326315752</v>
+        <v>5.066173086643301</v>
       </c>
       <c r="D3">
-        <v>9.076637787123166</v>
+        <v>8.454458234354824</v>
       </c>
       <c r="E3">
-        <v>7.50472416883209</v>
+        <v>7.555733644705913</v>
       </c>
       <c r="F3">
-        <v>64.85489240720074</v>
+        <v>79.81284328313653</v>
       </c>
       <c r="G3">
-        <v>2.067123047056009</v>
+        <v>3.923217282932987</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>47.8737747316956</v>
+        <v>60.4952462285472</v>
       </c>
       <c r="J3">
-        <v>5.114501711875532</v>
+        <v>9.985375360664314</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.253078595565914</v>
+        <v>8.419756092376508</v>
       </c>
       <c r="M3">
-        <v>43.09693686973323</v>
+        <v>44.002219550803</v>
       </c>
       <c r="N3">
-        <v>15.85575021642465</v>
+        <v>17.56914069563858</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.831946672153904</v>
+        <v>4.97621289360604</v>
       </c>
       <c r="D4">
-        <v>8.638181962053498</v>
+        <v>8.392082455088016</v>
       </c>
       <c r="E4">
-        <v>7.243007182594985</v>
+        <v>7.485420822034916</v>
       </c>
       <c r="F4">
-        <v>62.52014848661695</v>
+        <v>79.73835262761789</v>
       </c>
       <c r="G4">
-        <v>2.087470340203458</v>
+        <v>3.929231478432391</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>46.22719354960558</v>
+        <v>60.461302787966</v>
       </c>
       <c r="J4">
-        <v>5.207177524089484</v>
+        <v>10.01157862991889</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.235580845050182</v>
+        <v>8.421231320146799</v>
       </c>
       <c r="M4">
-        <v>41.28494877864205</v>
+        <v>43.65384367868774</v>
       </c>
       <c r="N4">
-        <v>15.60162069320157</v>
+        <v>17.50992574574658</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.661949473833712</v>
+        <v>4.939665681912286</v>
       </c>
       <c r="D5">
-        <v>8.460174083066942</v>
+        <v>8.367428652280035</v>
       </c>
       <c r="E5">
-        <v>7.135700106150787</v>
+        <v>7.45641672784768</v>
       </c>
       <c r="F5">
-        <v>61.59148378390527</v>
+        <v>79.71512426051143</v>
       </c>
       <c r="G5">
-        <v>2.095716379258889</v>
+        <v>3.931750674135258</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.57398170572008</v>
+        <v>60.45272183896672</v>
       </c>
       <c r="J5">
-        <v>5.244813220427625</v>
+        <v>10.02252958851129</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.228801849491646</v>
+        <v>8.421920415839805</v>
       </c>
       <c r="M5">
-        <v>40.53837264130441</v>
+        <v>43.51336702810109</v>
       </c>
       <c r="N5">
-        <v>15.49802679622594</v>
+        <v>17.48642872259476</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.633575898893684</v>
+        <v>4.933605565157587</v>
       </c>
       <c r="D6">
-        <v>8.430643664516829</v>
+        <v>8.363381681313662</v>
       </c>
       <c r="E6">
-        <v>7.117835935026763</v>
+        <v>7.451579806257133</v>
       </c>
       <c r="F6">
-        <v>61.43857094830104</v>
+        <v>79.71169610122708</v>
       </c>
       <c r="G6">
-        <v>2.097084010501431</v>
+        <v>3.932173127270113</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.46652755426886</v>
+        <v>60.45161288474129</v>
       </c>
       <c r="J6">
-        <v>5.251058847779603</v>
+        <v>10.02436452024695</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.227696028379425</v>
+        <v>8.422040147824534</v>
       </c>
       <c r="M6">
-        <v>40.41388852778068</v>
+        <v>43.49013495209302</v>
       </c>
       <c r="N6">
-        <v>15.48082722590138</v>
+        <v>17.48256592445081</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.829663481900668</v>
+        <v>4.975719472136615</v>
       </c>
       <c r="D7">
-        <v>8.635779181344656</v>
+        <v>8.391746841937394</v>
       </c>
       <c r="E7">
-        <v>7.241562952336785</v>
+        <v>7.485031066556576</v>
       </c>
       <c r="F7">
-        <v>62.50753593542873</v>
+        <v>79.73801057379832</v>
       </c>
       <c r="G7">
-        <v>2.087581681287673</v>
+        <v>3.92926517576821</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>46.21831503884826</v>
+        <v>60.46116585612757</v>
       </c>
       <c r="J7">
-        <v>5.207685429733663</v>
+        <v>10.01172521108214</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.235488062935527</v>
+        <v>8.421240257623765</v>
       </c>
       <c r="M7">
-        <v>41.2749143540384</v>
+        <v>43.65194294931965</v>
       </c>
       <c r="N7">
-        <v>15.6002235392169</v>
+        <v>17.50960626422132</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.677552644725528</v>
+        <v>5.162388353455708</v>
       </c>
       <c r="D8">
-        <v>9.626762551819716</v>
+        <v>8.52357417043892</v>
       </c>
       <c r="E8">
-        <v>7.782503441739062</v>
+        <v>7.62952714459629</v>
       </c>
       <c r="F8">
-        <v>67.43379366168759</v>
+        <v>79.91683377648845</v>
       </c>
       <c r="G8">
-        <v>2.045130002043603</v>
+        <v>3.917031926286954</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>49.69885281683337</v>
+        <v>60.54953098087602</v>
       </c>
       <c r="J8">
-        <v>5.014713416699894</v>
+        <v>9.958342054191679</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.27310593896602</v>
+        <v>8.418482689612919</v>
       </c>
       <c r="M8">
-        <v>45.00544929469324</v>
+        <v>44.37866917741282</v>
       </c>
       <c r="N8">
-        <v>16.12641434389342</v>
+        <v>17.6344352703974</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.32897980315205</v>
+        <v>5.527721191824797</v>
       </c>
       <c r="D9">
-        <v>11.74969802312689</v>
+        <v>8.804526386598988</v>
       </c>
       <c r="E9">
-        <v>8.850798401576073</v>
+        <v>7.90084645536739</v>
       </c>
       <c r="F9">
-        <v>78.18012951798129</v>
+        <v>80.49577707977055</v>
       </c>
       <c r="G9">
-        <v>1.956132450483769</v>
+        <v>3.89516318360377</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>57.35657866102357</v>
+        <v>60.89134347764574</v>
       </c>
       <c r="J9">
-        <v>4.616823444530884</v>
+        <v>9.862135215444731</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.363376148419952</v>
+        <v>8.415857052066182</v>
       </c>
       <c r="M9">
-        <v>52.60217824261194</v>
+        <v>45.84019867202672</v>
       </c>
       <c r="N9">
-        <v>17.14636526802482</v>
+        <v>17.89760249161515</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.62022746716014</v>
+        <v>5.79264775274407</v>
       </c>
       <c r="D10">
-        <v>13.42047841907057</v>
+        <v>9.023147578842242</v>
       </c>
       <c r="E10">
-        <v>9.687625036659975</v>
+        <v>8.092152797086348</v>
       </c>
       <c r="F10">
-        <v>87.7506171994245</v>
+        <v>81.06231868796505</v>
       </c>
       <c r="G10">
-        <v>1.880827886928249</v>
+        <v>3.88035842458628</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>64.49679232330587</v>
+        <v>61.24705110196672</v>
       </c>
       <c r="J10">
-        <v>4.290330677437227</v>
+        <v>9.796506290813637</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.448087131344518</v>
+        <v>8.415631577945899</v>
       </c>
       <c r="M10">
-        <v>58.646432352097</v>
+        <v>46.92787532528829</v>
       </c>
       <c r="N10">
-        <v>17.87864588010077</v>
+        <v>18.10084579383131</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.26323830946735</v>
+        <v>5.911840072548525</v>
       </c>
       <c r="D11">
-        <v>14.25513565533266</v>
+        <v>9.124919103993848</v>
       </c>
       <c r="E11">
-        <v>10.10242146524477</v>
+        <v>8.177302869389047</v>
       </c>
       <c r="F11">
-        <v>92.71988652212261</v>
+        <v>81.35098594520598</v>
       </c>
       <c r="G11">
-        <v>1.841508438749868</v>
+        <v>3.873890720170163</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>68.22299638964972</v>
+        <v>61.43186938734493</v>
       </c>
       <c r="J11">
-        <v>4.12452426048056</v>
+        <v>9.76772244013911</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.494529942279001</v>
+        <v>8.415900732718553</v>
       </c>
       <c r="M11">
-        <v>61.53884135152786</v>
+        <v>47.42395665781991</v>
       </c>
       <c r="N11">
-        <v>18.2048019701027</v>
+        <v>18.19516708774717</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.52151409245339</v>
+        <v>5.956742094836668</v>
       </c>
       <c r="D12">
-        <v>14.59077725015355</v>
+        <v>9.163761912186949</v>
       </c>
       <c r="E12">
-        <v>10.26849855682559</v>
+        <v>8.209266418932277</v>
       </c>
       <c r="F12">
-        <v>94.73715597404809</v>
+        <v>81.46475585512485</v>
       </c>
       <c r="G12">
-        <v>1.825383839228168</v>
+        <v>3.871479428592113</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>69.73336962909586</v>
+        <v>61.50517843472427</v>
       </c>
       <c r="J12">
-        <v>4.057566172732059</v>
+        <v>9.756974762520571</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.513956034713084</v>
+        <v>8.416056250784605</v>
       </c>
       <c r="M12">
-        <v>62.67709800168314</v>
+        <v>47.61185220677175</v>
       </c>
       <c r="N12">
-        <v>18.32677807677776</v>
+        <v>18.23112754902795</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.46505736969389</v>
+        <v>5.947082671163971</v>
       </c>
       <c r="D13">
-        <v>14.51739226635226</v>
+        <v>9.15538336115501</v>
       </c>
       <c r="E13">
-        <v>10.23222397678784</v>
+        <v>8.202395161943359</v>
       </c>
       <c r="F13">
-        <v>94.29527754058121</v>
+        <v>81.44005515484623</v>
       </c>
       <c r="G13">
-        <v>1.828924524572023</v>
+        <v>3.871997066597164</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>69.40262835204187</v>
+        <v>61.48924208221796</v>
       </c>
       <c r="J13">
-        <v>4.07221514814897</v>
+        <v>9.75928273089324</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.509672153179011</v>
+        <v>8.416020371202269</v>
       </c>
       <c r="M13">
-        <v>62.42946523000668</v>
+        <v>47.57138602126886</v>
       </c>
       <c r="N13">
-        <v>18.30059025509116</v>
+        <v>18.22337241322074</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.28413045060062</v>
+        <v>5.915539101880643</v>
       </c>
       <c r="D14">
-        <v>14.28227845753459</v>
+        <v>9.128108798627038</v>
       </c>
       <c r="E14">
-        <v>10.11586773371469</v>
+        <v>8.179938221739993</v>
       </c>
       <c r="F14">
-        <v>92.88265280855455</v>
+        <v>81.36025650212908</v>
       </c>
       <c r="G14">
-        <v>1.840211091056281</v>
+        <v>3.873691585415896</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>68.34490839681914</v>
+        <v>61.43783391769367</v>
       </c>
       <c r="J14">
-        <v>4.119113911225146</v>
+        <v>9.766835183966005</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.496084989806667</v>
+        <v>8.415912452324385</v>
       </c>
       <c r="M14">
-        <v>61.63142675270933</v>
+        <v>47.4394149496561</v>
       </c>
       <c r="N14">
-        <v>18.21487244439469</v>
+        <v>18.19812085035053</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.17553068617052</v>
+        <v>5.896186131621022</v>
       </c>
       <c r="D15">
-        <v>14.14120224319861</v>
+        <v>9.111441074472848</v>
       </c>
       <c r="E15">
-        <v>10.04594985433964</v>
+        <v>8.166145791557875</v>
       </c>
       <c r="F15">
-        <v>92.03740751352711</v>
+        <v>81.31195818264514</v>
       </c>
       <c r="G15">
-        <v>1.846941361291024</v>
+        <v>3.874734445798036</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>67.71172944854044</v>
+        <v>61.40677794145536</v>
       </c>
       <c r="J15">
-        <v>4.147224361424208</v>
+        <v>9.771481036618738</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.488033135961916</v>
+        <v>8.415853332870688</v>
       </c>
       <c r="M15">
-        <v>61.14918554946882</v>
+        <v>47.35857985424445</v>
       </c>
       <c r="N15">
-        <v>18.16214491807445</v>
+        <v>18.18268444028608</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.57979115127361</v>
+        <v>5.784827833477464</v>
       </c>
       <c r="D16">
-        <v>13.36804199749758</v>
+        <v>9.016540736138795</v>
       </c>
       <c r="E16">
-        <v>9.661484181587204</v>
+        <v>8.08654931933903</v>
       </c>
       <c r="F16">
-        <v>87.44097557650086</v>
+        <v>81.04407715249866</v>
       </c>
       <c r="G16">
-        <v>1.883260653004065</v>
+        <v>3.880786434327346</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>64.26431624664414</v>
+        <v>61.23543704822288</v>
       </c>
       <c r="J16">
-        <v>4.300701823304059</v>
+        <v>9.798408776182967</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.445259096551188</v>
+        <v>8.415621480018988</v>
       </c>
       <c r="M16">
-        <v>58.46182428012357</v>
+        <v>46.89546872310126</v>
       </c>
       <c r="N16">
-        <v>17.85715407627319</v>
+        <v>18.09471705751103</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.23198401873522</v>
+        <v>5.716142052420578</v>
       </c>
       <c r="D17">
-        <v>12.91729967836605</v>
+        <v>8.958895698882708</v>
       </c>
       <c r="E17">
-        <v>9.436410897024029</v>
+        <v>8.037230804077979</v>
       </c>
       <c r="F17">
-        <v>84.79339778941291</v>
+        <v>80.88767463959765</v>
       </c>
       <c r="G17">
-        <v>1.903988430844214</v>
+        <v>3.884567169083113</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>62.27498108830542</v>
+        <v>61.13622886925866</v>
       </c>
       <c r="J17">
-        <v>4.389569182179772</v>
+        <v>9.815201074785385</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.42139357583415</v>
+        <v>8.415574551675316</v>
       </c>
       <c r="M17">
-        <v>56.86109041923364</v>
+        <v>46.611591315277</v>
       </c>
       <c r="N17">
-        <v>17.66799898320687</v>
+        <v>18.0412117407443</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.03660156754607</v>
+        <v>5.676513504962458</v>
       </c>
       <c r="D18">
-        <v>12.66432702162002</v>
+        <v>8.925959917389987</v>
       </c>
       <c r="E18">
-        <v>9.309821502203979</v>
+        <v>8.008688134531289</v>
       </c>
       <c r="F18">
-        <v>83.31932559766975</v>
+        <v>80.80062871454466</v>
       </c>
       <c r="G18">
-        <v>1.915476339721233</v>
+        <v>3.886766915453609</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>61.16610533174788</v>
+        <v>61.08133176927998</v>
       </c>
       <c r="J18">
-        <v>4.439196872866789</v>
+        <v>9.824960489792232</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.408352001858251</v>
+        <v>8.415582539285897</v>
       </c>
       <c r="M18">
-        <v>55.95195738126423</v>
+        <v>46.44844263142988</v>
       </c>
       <c r="N18">
-        <v>17.55858978027776</v>
+        <v>18.01061394959887</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.971116440913327</v>
+        <v>5.663076332926509</v>
       </c>
       <c r="D19">
-        <v>12.57957951371635</v>
+        <v>8.914847126912937</v>
       </c>
       <c r="E19">
-        <v>9.267373128158409</v>
+        <v>7.998994205148858</v>
       </c>
       <c r="F19">
-        <v>82.82754021917633</v>
+        <v>80.77165634231335</v>
       </c>
       <c r="G19">
-        <v>1.919301408530581</v>
+        <v>3.887516049892158</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>60.79593906857043</v>
+        <v>61.06311584724333</v>
       </c>
       <c r="J19">
-        <v>4.455778395856675</v>
+        <v>9.828282251351538</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.404040411153199</v>
+        <v>8.415591247329075</v>
       </c>
       <c r="M19">
-        <v>55.64568573323793</v>
+        <v>46.3932301230456</v>
       </c>
       <c r="N19">
-        <v>17.52145115582272</v>
+        <v>18.00028523481414</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.26849193667046</v>
+        <v>5.723466753920666</v>
       </c>
       <c r="D20">
-        <v>12.96458774331265</v>
+        <v>8.965009542670851</v>
       </c>
       <c r="E20">
-        <v>9.460053450992316</v>
+        <v>8.042499138600478</v>
       </c>
       <c r="F20">
-        <v>85.06992370142402</v>
+        <v>80.90402242200977</v>
       </c>
       <c r="G20">
-        <v>1.901829388559269</v>
+        <v>3.884162102348306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>62.48289247413423</v>
+        <v>61.14656557930707</v>
       </c>
       <c r="J20">
-        <v>4.38027144598263</v>
+        <v>9.813403073665597</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.423859732932378</v>
+        <v>8.415575926025701</v>
       </c>
       <c r="M20">
-        <v>57.03018265977584</v>
+        <v>46.64179815084304</v>
       </c>
       <c r="N20">
-        <v>17.68820088567593</v>
+        <v>18.04688933035947</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.33678822826625</v>
+        <v>5.924810874481561</v>
       </c>
       <c r="D21">
-        <v>14.35069680921</v>
+        <v>9.13611197950873</v>
       </c>
       <c r="E21">
-        <v>10.14974915662231</v>
+        <v>8.186542079611332</v>
       </c>
       <c r="F21">
-        <v>93.29322932549273</v>
+        <v>81.38357428768734</v>
       </c>
       <c r="G21">
-        <v>1.836935708065325</v>
+        <v>3.873192840042194</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>68.65239428225918</v>
+        <v>61.45284348445469</v>
       </c>
       <c r="J21">
-        <v>4.105472323588026</v>
+        <v>9.764612731452289</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.500017201009447</v>
+        <v>8.415942694995984</v>
       </c>
       <c r="M21">
-        <v>61.86438754784203</v>
+        <v>47.47817809884412</v>
       </c>
       <c r="N21">
-        <v>18.24009799451469</v>
+        <v>18.20553145172078</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.13033025740861</v>
+        <v>6.055022555280361</v>
       </c>
       <c r="D22">
-        <v>15.38265546539359</v>
+        <v>9.249696425635932</v>
       </c>
       <c r="E22">
-        <v>10.65860813224898</v>
+        <v>8.279040253246391</v>
       </c>
       <c r="F22">
-        <v>99.53072538982568</v>
+        <v>81.72297163481548</v>
       </c>
       <c r="G22">
-        <v>1.786642877436952</v>
+        <v>3.866244386500316</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>73.31792467115902</v>
+        <v>61.67238225913469</v>
       </c>
       <c r="J22">
-        <v>3.899345277472343</v>
+        <v>9.733611327002697</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.561483976767499</v>
+        <v>8.416494863523383</v>
       </c>
       <c r="M22">
-        <v>65.30455804823977</v>
+        <v>48.02497106591754</v>
       </c>
       <c r="N22">
-        <v>18.59112377795655</v>
+        <v>18.31061808248362</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.69381259606169</v>
+        <v>5.985665466383084</v>
       </c>
       <c r="D23">
-        <v>14.81479266070702</v>
+        <v>9.188923041159919</v>
       </c>
       <c r="E23">
-        <v>10.37910254234481</v>
+        <v>8.22982601557889</v>
       </c>
       <c r="F23">
-        <v>96.08869076793532</v>
+        <v>81.53945073777876</v>
       </c>
       <c r="G23">
-        <v>1.814523240564889</v>
+        <v>3.869932894890364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>70.74463737352558</v>
+        <v>61.55343463891223</v>
       </c>
       <c r="J23">
-        <v>4.012825314033791</v>
+        <v>9.750076928599949</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.527159447181194</v>
+        <v>8.41617152158941</v>
       </c>
       <c r="M23">
-        <v>63.42871057336361</v>
+        <v>47.73316883248236</v>
       </c>
       <c r="N23">
-        <v>18.40499952833637</v>
+        <v>18.25441116980249</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.251972866574</v>
+        <v>5.72015568967665</v>
       </c>
       <c r="D24">
-        <v>12.94319014692206</v>
+        <v>8.962244832765387</v>
       </c>
       <c r="E24">
-        <v>9.44935615429228</v>
+        <v>8.040117911773907</v>
       </c>
       <c r="F24">
-        <v>84.94475995850019</v>
+        <v>80.89662264475676</v>
       </c>
       <c r="G24">
-        <v>1.902806796033844</v>
+        <v>3.884345151524174</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>62.38878973686208</v>
+        <v>61.1418856913145</v>
       </c>
       <c r="J24">
-        <v>4.384479406589106</v>
+        <v>9.814215621847865</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.422742710840919</v>
+        <v>8.415575195777038</v>
       </c>
       <c r="M24">
-        <v>56.9537026978817</v>
+        <v>46.62814145430023</v>
       </c>
       <c r="N24">
-        <v>17.67906963349526</v>
+        <v>18.04432198208313</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.876872279915769</v>
+        <v>5.429293584038683</v>
       </c>
       <c r="D25">
-        <v>11.16675947710042</v>
+        <v>8.726266412170878</v>
       </c>
       <c r="E25">
-        <v>8.557468876255799</v>
+        <v>7.82880963919682</v>
       </c>
       <c r="F25">
-        <v>75.1106657553308</v>
+        <v>80.31447897685925</v>
       </c>
       <c r="G25">
-        <v>1.981321014349044</v>
+        <v>3.900855366451361</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55.16214577110858</v>
+        <v>60.78062226376463</v>
       </c>
       <c r="J25">
-        <v>4.728296029348591</v>
+        <v>9.88726581933253</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.336554500546395</v>
+        <v>8.416268759586535</v>
       </c>
       <c r="M25">
-        <v>50.41744529998091</v>
+        <v>45.44177673871702</v>
       </c>
       <c r="N25">
-        <v>16.8726321114026</v>
+        <v>17.8245745234673</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.213037744005318</v>
+        <v>7.904473700885937</v>
       </c>
       <c r="D2">
-        <v>8.560862889749792</v>
+        <v>9.917358336070729</v>
       </c>
       <c r="E2">
-        <v>7.667890652881365</v>
+        <v>7.928507604341638</v>
       </c>
       <c r="F2">
-        <v>79.98064016098319</v>
+        <v>68.82806516494865</v>
       </c>
       <c r="G2">
-        <v>3.91386196359629</v>
+        <v>2.033393939467038</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>60.58479843161717</v>
+        <v>50.68797276312509</v>
       </c>
       <c r="J2">
-        <v>9.944455771638804</v>
+        <v>4.961659580164524</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.417923520109101</v>
+        <v>5.28421827297705</v>
       </c>
       <c r="M2">
-        <v>44.57834913285934</v>
+        <v>46.00217301723536</v>
       </c>
       <c r="N2">
-        <v>17.66954877468222</v>
+        <v>16.2685008376958</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.066173086643301</v>
+        <v>7.243804326315709</v>
       </c>
       <c r="D3">
-        <v>8.454458234354824</v>
+        <v>9.076637787123126</v>
       </c>
       <c r="E3">
-        <v>7.555733644705913</v>
+        <v>7.504724168831939</v>
       </c>
       <c r="F3">
-        <v>79.81284328313653</v>
+        <v>64.85489240720051</v>
       </c>
       <c r="G3">
-        <v>3.923217282932987</v>
+        <v>2.067123047056155</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.4952462285472</v>
+        <v>47.87377473169549</v>
       </c>
       <c r="J3">
-        <v>9.985375360664314</v>
+        <v>5.114501711875564</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.419756092376508</v>
+        <v>5.253078595565759</v>
       </c>
       <c r="M3">
-        <v>44.002219550803</v>
+        <v>43.09693686973312</v>
       </c>
       <c r="N3">
-        <v>17.56914069563858</v>
+        <v>15.85575021642467</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.97621289360604</v>
+        <v>6.831946672153815</v>
       </c>
       <c r="D4">
-        <v>8.392082455088016</v>
+        <v>8.638181962053462</v>
       </c>
       <c r="E4">
-        <v>7.485420822034916</v>
+        <v>7.243007182594985</v>
       </c>
       <c r="F4">
-        <v>79.73835262761789</v>
+        <v>62.52014848661685</v>
       </c>
       <c r="G4">
-        <v>3.929231478432391</v>
+        <v>2.087470340203465</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.461302787966</v>
+        <v>46.22719354960549</v>
       </c>
       <c r="J4">
-        <v>10.01157862991889</v>
+        <v>5.207177524089484</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.421231320146799</v>
+        <v>5.235580845050213</v>
       </c>
       <c r="M4">
-        <v>43.65384367868774</v>
+        <v>41.284948778642</v>
       </c>
       <c r="N4">
-        <v>17.50992574574658</v>
+        <v>15.60162069320158</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.939665681912286</v>
+        <v>6.661949473833874</v>
       </c>
       <c r="D5">
-        <v>8.367428652280035</v>
+        <v>8.460174083066986</v>
       </c>
       <c r="E5">
-        <v>7.45641672784768</v>
+        <v>7.135700106150902</v>
       </c>
       <c r="F5">
-        <v>79.71512426051143</v>
+        <v>61.59148378390528</v>
       </c>
       <c r="G5">
-        <v>3.931750674135258</v>
+        <v>2.095716379258874</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>60.45272183896672</v>
+        <v>45.57398170572011</v>
       </c>
       <c r="J5">
-        <v>10.02252958851129</v>
+        <v>5.244813220427692</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.421920415839805</v>
+        <v>5.228801849491642</v>
       </c>
       <c r="M5">
-        <v>43.51336702810109</v>
+        <v>40.53837264130443</v>
       </c>
       <c r="N5">
-        <v>17.48642872259476</v>
+        <v>15.4980267962259</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.933605565157587</v>
+        <v>6.633575898893623</v>
       </c>
       <c r="D6">
-        <v>8.363381681313662</v>
+        <v>8.430643664516825</v>
       </c>
       <c r="E6">
-        <v>7.451579806257133</v>
+        <v>7.117835935026721</v>
       </c>
       <c r="F6">
-        <v>79.71169610122708</v>
+        <v>61.43857094830108</v>
       </c>
       <c r="G6">
-        <v>3.932173127270113</v>
+        <v>2.097084010501559</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>60.45161288474129</v>
+        <v>45.46652755426889</v>
       </c>
       <c r="J6">
-        <v>10.02436452024695</v>
+        <v>5.251058847779535</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.422040147824534</v>
+        <v>5.227696028379429</v>
       </c>
       <c r="M6">
-        <v>43.49013495209302</v>
+        <v>40.41388852778069</v>
       </c>
       <c r="N6">
-        <v>17.48256592445081</v>
+        <v>15.4808272259014</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.975719472136615</v>
+        <v>6.829663481900668</v>
       </c>
       <c r="D7">
-        <v>8.391746841937394</v>
+        <v>8.635779181344672</v>
       </c>
       <c r="E7">
-        <v>7.485031066556576</v>
+        <v>7.241562952336607</v>
       </c>
       <c r="F7">
-        <v>79.73801057379832</v>
+        <v>62.50753593542869</v>
       </c>
       <c r="G7">
-        <v>3.92926517576821</v>
+        <v>2.08758168128741</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.46116585612757</v>
+        <v>46.2183150388482</v>
       </c>
       <c r="J7">
-        <v>10.01172521108214</v>
+        <v>5.207685429733433</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.421240257623765</v>
+        <v>5.235488062935426</v>
       </c>
       <c r="M7">
-        <v>43.65194294931965</v>
+        <v>41.27491435403836</v>
       </c>
       <c r="N7">
-        <v>17.50960626422132</v>
+        <v>15.60022353921692</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.162388353455708</v>
+        <v>7.677552644725687</v>
       </c>
       <c r="D8">
-        <v>8.52357417043892</v>
+        <v>9.626762551819775</v>
       </c>
       <c r="E8">
-        <v>7.62952714459629</v>
+        <v>7.782503441739161</v>
       </c>
       <c r="F8">
-        <v>79.91683377648845</v>
+        <v>67.43379366168763</v>
       </c>
       <c r="G8">
-        <v>3.917031926286954</v>
+        <v>2.045130002043477</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>60.54953098087602</v>
+        <v>49.69885281683338</v>
       </c>
       <c r="J8">
-        <v>9.958342054191679</v>
+        <v>5.014713416699929</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.418482689612919</v>
+        <v>5.273105938966014</v>
       </c>
       <c r="M8">
-        <v>44.37866917741282</v>
+        <v>45.00544929469326</v>
       </c>
       <c r="N8">
-        <v>17.6344352703974</v>
+        <v>16.12641434389339</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.527721191824797</v>
+        <v>9.328979803152064</v>
       </c>
       <c r="D9">
-        <v>8.804526386598988</v>
+        <v>11.74969802312691</v>
       </c>
       <c r="E9">
-        <v>7.90084645536739</v>
+        <v>8.850798401576231</v>
       </c>
       <c r="F9">
-        <v>80.49577707977055</v>
+        <v>78.18012951798143</v>
       </c>
       <c r="G9">
-        <v>3.89516318360377</v>
+        <v>1.956132450483764</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>60.89134347764574</v>
+        <v>57.35657866102363</v>
       </c>
       <c r="J9">
-        <v>9.862135215444731</v>
+        <v>4.616823444530949</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.415857052066182</v>
+        <v>5.363376148420109</v>
       </c>
       <c r="M9">
-        <v>45.84019867202672</v>
+        <v>52.602178242612</v>
       </c>
       <c r="N9">
-        <v>17.89760249161515</v>
+        <v>17.14636526802482</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.79264775274407</v>
+        <v>10.6202274671602</v>
       </c>
       <c r="D10">
-        <v>9.023147578842242</v>
+        <v>13.42047841907057</v>
       </c>
       <c r="E10">
-        <v>8.092152797086348</v>
+        <v>9.687625036659865</v>
       </c>
       <c r="F10">
-        <v>81.06231868796505</v>
+        <v>87.75061719942501</v>
       </c>
       <c r="G10">
-        <v>3.88035842458628</v>
+        <v>1.880827886928786</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>61.24705110196672</v>
+        <v>64.49679232330624</v>
       </c>
       <c r="J10">
-        <v>9.796506290813637</v>
+        <v>4.2903306774372</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.415631577945899</v>
+        <v>5.448087131344447</v>
       </c>
       <c r="M10">
-        <v>46.92787532528829</v>
+        <v>58.64643235209726</v>
       </c>
       <c r="N10">
-        <v>18.10084579383131</v>
+        <v>17.87864588010075</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.911840072548525</v>
+        <v>11.26323830946759</v>
       </c>
       <c r="D11">
-        <v>9.124919103993848</v>
+        <v>14.2551356553329</v>
       </c>
       <c r="E11">
-        <v>8.177302869389047</v>
+        <v>10.10242146524482</v>
       </c>
       <c r="F11">
-        <v>81.35098594520598</v>
+        <v>92.71988652212326</v>
       </c>
       <c r="G11">
-        <v>3.873890720170163</v>
+        <v>1.841508438750001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>61.43186938734493</v>
+        <v>68.22299638965022</v>
       </c>
       <c r="J11">
-        <v>9.76772244013911</v>
+        <v>4.124524260480538</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.415900732718553</v>
+        <v>5.494529942278925</v>
       </c>
       <c r="M11">
-        <v>47.42395665781991</v>
+        <v>61.53884135152818</v>
       </c>
       <c r="N11">
-        <v>18.19516708774717</v>
+        <v>18.20480197010263</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.956742094836668</v>
+        <v>11.52151409245351</v>
       </c>
       <c r="D12">
-        <v>9.163761912186949</v>
+        <v>14.59077725015361</v>
       </c>
       <c r="E12">
-        <v>8.209266418932277</v>
+        <v>10.26849855682554</v>
       </c>
       <c r="F12">
-        <v>81.46475585512485</v>
+        <v>94.73715597404878</v>
       </c>
       <c r="G12">
-        <v>3.871479428592113</v>
+        <v>1.825383839227892</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>61.50517843472427</v>
+        <v>69.73336962909634</v>
       </c>
       <c r="J12">
-        <v>9.756974762520571</v>
+        <v>4.057566172731958</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.416056250784605</v>
+        <v>5.51395603471303</v>
       </c>
       <c r="M12">
-        <v>47.61185220677175</v>
+        <v>62.67709800168343</v>
       </c>
       <c r="N12">
-        <v>18.23112754902795</v>
+        <v>18.32677807677772</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.947082671163971</v>
+        <v>11.46505736969369</v>
       </c>
       <c r="D13">
-        <v>9.15538336115501</v>
+        <v>14.51739226635204</v>
       </c>
       <c r="E13">
-        <v>8.202395161943359</v>
+        <v>10.23222397678766</v>
       </c>
       <c r="F13">
-        <v>81.44005515484623</v>
+        <v>94.29527754058032</v>
       </c>
       <c r="G13">
-        <v>3.871997066597164</v>
+        <v>1.828924524572266</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>61.48924208221796</v>
+        <v>69.40262835204113</v>
       </c>
       <c r="J13">
-        <v>9.75928273089324</v>
+        <v>4.072215148149</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.416020371202269</v>
+        <v>5.509672153179008</v>
       </c>
       <c r="M13">
-        <v>47.57138602126886</v>
+        <v>62.42946523000622</v>
       </c>
       <c r="N13">
-        <v>18.22337241322074</v>
+        <v>18.30059025509119</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.915539101880643</v>
+        <v>11.28413045060074</v>
       </c>
       <c r="D14">
-        <v>9.128108798627038</v>
+        <v>14.28227845753448</v>
       </c>
       <c r="E14">
-        <v>8.179938221739993</v>
+        <v>10.11586773371459</v>
       </c>
       <c r="F14">
-        <v>81.36025650212908</v>
+        <v>92.88265280855387</v>
       </c>
       <c r="G14">
-        <v>3.873691585415896</v>
+        <v>1.840211091056382</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>61.43783391769367</v>
+        <v>68.34490839681857</v>
       </c>
       <c r="J14">
-        <v>9.766835183966005</v>
+        <v>4.119113911225112</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.415912452324385</v>
+        <v>5.49608498980656</v>
       </c>
       <c r="M14">
-        <v>47.4394149496561</v>
+        <v>61.63142675270902</v>
       </c>
       <c r="N14">
-        <v>18.19812085035053</v>
+        <v>18.21487244439474</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.896186131621022</v>
+        <v>11.17553068617052</v>
       </c>
       <c r="D15">
-        <v>9.111441074472848</v>
+        <v>14.14120224319863</v>
       </c>
       <c r="E15">
-        <v>8.166145791557875</v>
+        <v>10.04594985433959</v>
       </c>
       <c r="F15">
-        <v>81.31195818264514</v>
+        <v>92.03740751352707</v>
       </c>
       <c r="G15">
-        <v>3.874734445798036</v>
+        <v>1.846941361291146</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>61.40677794145536</v>
+        <v>67.7117294485404</v>
       </c>
       <c r="J15">
-        <v>9.771481036618738</v>
+        <v>4.147224361424211</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.415853332870688</v>
+        <v>5.488033135961885</v>
       </c>
       <c r="M15">
-        <v>47.35857985424445</v>
+        <v>61.1491855494688</v>
       </c>
       <c r="N15">
-        <v>18.18268444028608</v>
+        <v>18.16214491807445</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.784827833477464</v>
+        <v>10.57979115127371</v>
       </c>
       <c r="D16">
-        <v>9.016540736138795</v>
+        <v>13.36804199749769</v>
       </c>
       <c r="E16">
-        <v>8.08654931933903</v>
+        <v>9.661484181587332</v>
       </c>
       <c r="F16">
-        <v>81.04407715249866</v>
+        <v>87.44097557650117</v>
       </c>
       <c r="G16">
-        <v>3.880786434327346</v>
+        <v>1.883260653004331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>61.23543704822288</v>
+        <v>64.26431624664431</v>
       </c>
       <c r="J16">
-        <v>9.798408776182967</v>
+        <v>4.300701823304089</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.415621480018988</v>
+        <v>5.445259096551229</v>
       </c>
       <c r="M16">
-        <v>46.89546872310126</v>
+        <v>58.46182428012371</v>
       </c>
       <c r="N16">
-        <v>18.09471705751103</v>
+        <v>17.85715407627318</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.716142052420578</v>
+        <v>10.23198401873531</v>
       </c>
       <c r="D17">
-        <v>8.958895698882708</v>
+        <v>12.9172996783661</v>
       </c>
       <c r="E17">
-        <v>8.037230804077979</v>
+        <v>9.436410897024034</v>
       </c>
       <c r="F17">
-        <v>80.88767463959765</v>
+        <v>84.7933977894134</v>
       </c>
       <c r="G17">
-        <v>3.884567169083113</v>
+        <v>1.903988430844342</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>61.13622886925866</v>
+        <v>62.27498108830576</v>
       </c>
       <c r="J17">
-        <v>9.815201074785385</v>
+        <v>4.389569182179705</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.415574551675316</v>
+        <v>5.421393575834118</v>
       </c>
       <c r="M17">
-        <v>46.611591315277</v>
+        <v>56.86109041923385</v>
       </c>
       <c r="N17">
-        <v>18.0412117407443</v>
+        <v>17.66799898320687</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.676513504962458</v>
+        <v>10.03660156754619</v>
       </c>
       <c r="D18">
-        <v>8.925959917389987</v>
+        <v>12.66432702162018</v>
       </c>
       <c r="E18">
-        <v>8.008688134531289</v>
+        <v>9.309821502204201</v>
       </c>
       <c r="F18">
-        <v>80.80062871454466</v>
+        <v>83.31932559767041</v>
       </c>
       <c r="G18">
-        <v>3.886766915453609</v>
+        <v>1.915476339721085</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>61.08133176927998</v>
+        <v>61.16610533174839</v>
       </c>
       <c r="J18">
-        <v>9.824960489792232</v>
+        <v>4.439196872866885</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.415582539285897</v>
+        <v>5.408352001858389</v>
       </c>
       <c r="M18">
-        <v>46.44844263142988</v>
+        <v>55.95195738126454</v>
       </c>
       <c r="N18">
-        <v>18.01061394959887</v>
+        <v>17.55858978027774</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.663076332926509</v>
+        <v>9.97111644091328</v>
       </c>
       <c r="D19">
-        <v>8.914847126912937</v>
+        <v>12.57957951371634</v>
       </c>
       <c r="E19">
-        <v>7.998994205148858</v>
+        <v>9.267373128158463</v>
       </c>
       <c r="F19">
-        <v>80.77165634231335</v>
+        <v>82.82754021917631</v>
       </c>
       <c r="G19">
-        <v>3.887516049892158</v>
+        <v>1.919301408530724</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>61.06311584724333</v>
+        <v>60.79593906857039</v>
       </c>
       <c r="J19">
-        <v>9.828282251351538</v>
+        <v>4.455778395856742</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.415591247329075</v>
+        <v>5.404040411153258</v>
       </c>
       <c r="M19">
-        <v>46.3932301230456</v>
+        <v>55.64568573323788</v>
       </c>
       <c r="N19">
-        <v>18.00028523481414</v>
+        <v>17.52145115582271</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.723466753920666</v>
+        <v>10.26849193667037</v>
       </c>
       <c r="D20">
-        <v>8.965009542670851</v>
+        <v>12.96458774331261</v>
       </c>
       <c r="E20">
-        <v>8.042499138600478</v>
+        <v>9.460053450992339</v>
       </c>
       <c r="F20">
-        <v>80.90402242200977</v>
+        <v>85.06992370142419</v>
       </c>
       <c r="G20">
-        <v>3.884162102348306</v>
+        <v>1.901829388559012</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>61.14656557930707</v>
+        <v>62.48289247413439</v>
       </c>
       <c r="J20">
-        <v>9.813403073665597</v>
+        <v>4.380271445982694</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.415575926025701</v>
+        <v>5.423859732932384</v>
       </c>
       <c r="M20">
-        <v>46.64179815084304</v>
+        <v>57.0301826597759</v>
       </c>
       <c r="N20">
-        <v>18.04688933035947</v>
+        <v>17.68820088567591</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.924810874481561</v>
+        <v>11.33678822826636</v>
       </c>
       <c r="D21">
-        <v>9.13611197950873</v>
+        <v>14.35069680920992</v>
       </c>
       <c r="E21">
-        <v>8.186542079611332</v>
+        <v>10.14974915662223</v>
       </c>
       <c r="F21">
-        <v>81.38357428768734</v>
+        <v>93.29322932549263</v>
       </c>
       <c r="G21">
-        <v>3.873192840042194</v>
+        <v>1.836935708065182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>61.45284348445469</v>
+        <v>68.6523942822591</v>
       </c>
       <c r="J21">
-        <v>9.764612731452289</v>
+        <v>4.105472323587925</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.415942694995984</v>
+        <v>5.500017201009296</v>
       </c>
       <c r="M21">
-        <v>47.47817809884412</v>
+        <v>61.86438754784199</v>
       </c>
       <c r="N21">
-        <v>18.20553145172078</v>
+        <v>18.24009799451469</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.055022555280361</v>
+        <v>12.13033025740856</v>
       </c>
       <c r="D22">
-        <v>9.249696425635932</v>
+        <v>15.38265546539347</v>
       </c>
       <c r="E22">
-        <v>8.279040253246391</v>
+        <v>10.65860813224894</v>
       </c>
       <c r="F22">
-        <v>81.72297163481548</v>
+        <v>99.53072538982521</v>
       </c>
       <c r="G22">
-        <v>3.866244386500316</v>
+        <v>1.786642877436902</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>61.67238225913469</v>
+        <v>73.31792467115868</v>
       </c>
       <c r="J22">
-        <v>9.733611327002697</v>
+        <v>3.899345277472348</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.416494863523383</v>
+        <v>5.561483976767492</v>
       </c>
       <c r="M22">
-        <v>48.02497106591754</v>
+        <v>65.30455804823958</v>
       </c>
       <c r="N22">
-        <v>18.31061808248362</v>
+        <v>18.59112377795658</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.985665466383084</v>
+        <v>11.69381259606184</v>
       </c>
       <c r="D23">
-        <v>9.188923041159919</v>
+        <v>14.81479266070717</v>
       </c>
       <c r="E23">
-        <v>8.22982601557889</v>
+        <v>10.37910254234489</v>
       </c>
       <c r="F23">
-        <v>81.53945073777876</v>
+        <v>96.08869076793599</v>
       </c>
       <c r="G23">
-        <v>3.869932894890364</v>
+        <v>1.814523240565033</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>61.55343463891223</v>
+        <v>70.7446373735261</v>
       </c>
       <c r="J23">
-        <v>9.750076928599949</v>
+        <v>4.012825314033766</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.41617152158941</v>
+        <v>5.527159447181193</v>
       </c>
       <c r="M23">
-        <v>47.73316883248236</v>
+        <v>63.42871057336394</v>
       </c>
       <c r="N23">
-        <v>18.25441116980249</v>
+        <v>18.40499952833637</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.72015568967665</v>
+        <v>10.25197286657399</v>
       </c>
       <c r="D24">
-        <v>8.962244832765387</v>
+        <v>12.94319014692196</v>
       </c>
       <c r="E24">
-        <v>8.040117911773907</v>
+        <v>9.449356154292211</v>
       </c>
       <c r="F24">
-        <v>80.89662264475676</v>
+        <v>84.94475995849972</v>
       </c>
       <c r="G24">
-        <v>3.884345151524174</v>
+        <v>1.902806796033578</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>61.1418856913145</v>
+        <v>62.38878973686175</v>
       </c>
       <c r="J24">
-        <v>9.814215621847865</v>
+        <v>4.38447940658924</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.415575195777038</v>
+        <v>5.42274271084089</v>
       </c>
       <c r="M24">
-        <v>46.62814145430023</v>
+        <v>56.95370269788145</v>
       </c>
       <c r="N24">
-        <v>18.04432198208313</v>
+        <v>17.67906963349527</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.429293584038683</v>
+        <v>8.876872279915798</v>
       </c>
       <c r="D25">
-        <v>8.726266412170878</v>
+        <v>11.16675947710042</v>
       </c>
       <c r="E25">
-        <v>7.82880963919682</v>
+        <v>8.557468876255712</v>
       </c>
       <c r="F25">
-        <v>80.31447897685925</v>
+        <v>75.11066575533079</v>
       </c>
       <c r="G25">
-        <v>3.900855366451361</v>
+        <v>1.981321014348893</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>60.78062226376463</v>
+        <v>55.16214577110857</v>
       </c>
       <c r="J25">
-        <v>9.88726581933253</v>
+        <v>4.728296029348629</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.416268759586535</v>
+        <v>5.336554500546386</v>
       </c>
       <c r="M25">
-        <v>45.44177673871702</v>
+        <v>50.41744529998088</v>
       </c>
       <c r="N25">
-        <v>17.8245745234673</v>
+        <v>16.87263211140261</v>
       </c>
       <c r="O25">
         <v>0</v>
